--- a/data/trans_orig/P34B02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34B02-Provincia-trans_orig.xlsx
@@ -651,7 +651,7 @@
         <v>0.3420958900365114</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.716564562729589</v>
+        <v>1.716564562729588</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.391219710209259</v>
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2847491512527808</v>
+        <v>0.2805879076948345</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3842053150979116</v>
+        <v>0.3790277992556583</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.573135195623111</v>
+        <v>1.591780004918514</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2051240070119918</v>
+        <v>0.2038196809364917</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.235565816229613</v>
+        <v>0.2297087567344171</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.510664447838762</v>
+        <v>1.509526060633596</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2835050631547816</v>
+        <v>0.2799339201520282</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3322435335936941</v>
+        <v>0.3276127206656818</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.601679642441855</v>
+        <v>1.62033753892173</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.638710849499988</v>
+        <v>0.6679115812908973</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7552866895033019</v>
+        <v>0.7591208331748162</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.125903100551938</v>
+        <v>2.165721886859765</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5636299826692204</v>
+        <v>0.5809999626279783</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4919041240787017</v>
+        <v>0.4902157744250332</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.936873808484843</v>
+        <v>1.957244307662346</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5246441314458966</v>
+        <v>0.5327766250164367</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5471335744933284</v>
+        <v>0.5483864470174338</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.960003922417948</v>
+        <v>1.996782754086917</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.163668961057481</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.669502959684519</v>
+        <v>0.6695029596845191</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.2462109899129026</v>
@@ -769,7 +769,7 @@
         <v>0.1696968646576568</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.9761123374398688</v>
+        <v>0.9761123374398686</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2552945006007872</v>
+        <v>0.2487016480551042</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.115577493296121</v>
+        <v>0.1140198632262338</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.072769814451769</v>
+        <v>1.063681839807762</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09137732566241416</v>
+        <v>0.08849355182536546</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1035619195817929</v>
+        <v>0.1048763064170186</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5601800383265968</v>
+        <v>0.5569864148816961</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1907248448562928</v>
+        <v>0.1850059470497639</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1252370529697047</v>
+        <v>0.1193413325199165</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.836996913700663</v>
+        <v>0.8548431169387152</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4727973309667076</v>
+        <v>0.4656331840511855</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2597626802318823</v>
+        <v>0.2710467035462242</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.510048559615213</v>
+        <v>1.506709795175484</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2422747544670718</v>
+        <v>0.2361755396528586</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2546834153363092</v>
+        <v>0.2487952139528133</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8079881504868913</v>
+        <v>0.8026014496127192</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3233247623272938</v>
+        <v>0.3174910788716833</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2279824582417132</v>
+        <v>0.2265864852233088</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.103688598568904</v>
+        <v>1.094967065815328</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07441708131662489</v>
+        <v>0.07052100763573373</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1608834219615356</v>
+        <v>0.1654527108204912</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2093629481476059</v>
+        <v>0.2113380832950006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0464100957836917</v>
+        <v>0.04692952930401965</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2471741576272662</v>
+        <v>0.2332536419700704</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4525571567946639</v>
+        <v>0.4569415212558468</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07104117334353484</v>
+        <v>0.07036436075716943</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2186708955047169</v>
+        <v>0.2246149151658714</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.364063057940145</v>
+        <v>0.3595337328154349</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2477702422520262</v>
+        <v>0.2521685536511271</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3853209815773498</v>
+        <v>0.3919587805383647</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4513771513351843</v>
+        <v>0.4666216949322157</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2093801736372174</v>
+        <v>0.1963589000415568</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5445023744403357</v>
+        <v>0.5288624054448747</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7467346730926077</v>
+        <v>0.727915878416141</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1737693519212321</v>
+        <v>0.1792745175498405</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4114039120843621</v>
+        <v>0.4003620596915659</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5502314660496722</v>
+        <v>0.5518526200595353</v>
       </c>
     </row>
     <row r="13">
@@ -987,7 +987,7 @@
         <v>0.3077630251763817</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.393440553420852</v>
+        <v>0.3934405534208519</v>
       </c>
     </row>
     <row r="14">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2956548977108411</v>
+        <v>0.29203996242875</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.339593803078913</v>
+        <v>0.3347652428219083</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2513316689868877</v>
+        <v>0.2587351532063527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1386711600571257</v>
+        <v>0.138522687792613</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07160950669359879</v>
+        <v>0.06956151935910819</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2752822976597747</v>
+        <v>0.29241009277618</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2355323121339381</v>
+        <v>0.2354275138369377</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2238594110505422</v>
+        <v>0.217046384337716</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2968662609178099</v>
+        <v>0.3058690670183487</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5983692742304915</v>
+        <v>0.6016207057767171</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7125252049571856</v>
+        <v>0.7251041106105997</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5835347716323365</v>
+        <v>0.5624340628450485</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3281170927719392</v>
+        <v>0.3206699374197677</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2535688199824266</v>
+        <v>0.2465197231936451</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.609348361674004</v>
+        <v>0.6158544798864445</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4111409236659799</v>
+        <v>0.4173626942825082</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4254010325444872</v>
+        <v>0.4136844672753309</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5200227720382573</v>
+        <v>0.5321723489584298</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1554463361751885</v>
+        <v>0.1473717499534688</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4700306141991238</v>
+        <v>0.4635142925186141</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8756730685529762</v>
+        <v>0.8760788024666269</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06864631824409326</v>
+        <v>0.06461818258404889</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3036925623071782</v>
+        <v>0.2828713836860228</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2990494889560383</v>
+        <v>0.296215724744384</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1296828136740353</v>
+        <v>0.1378496792800266</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4306415983837866</v>
+        <v>0.428842194541024</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6217154492653939</v>
+        <v>0.6130398425854989</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4843855040985629</v>
+        <v>0.5176459747198535</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9486138590275763</v>
+        <v>0.9374297271433063</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.462228957430882</v>
+        <v>1.464842727595876</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3003090868778107</v>
+        <v>0.3254777058761688</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7052033386637739</v>
+        <v>0.6858588170241661</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5793485647839459</v>
+        <v>0.5513110112866197</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3358887678824508</v>
+        <v>0.3360689501547853</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7360729893442927</v>
+        <v>0.739599721449173</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9514607985300466</v>
+        <v>0.9239752549253939</v>
       </c>
     </row>
     <row r="19">
@@ -1196,7 +1196,7 @@
         <v>0.303722968526742</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.4447048957420676</v>
+        <v>0.4447048957420674</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.132689460445782</v>
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08117638602218374</v>
+        <v>0.08713622163607178</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1967098882337221</v>
+        <v>0.2006157951138459</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1257030778925274</v>
+        <v>0.1277728167005954</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06678288645593008</v>
+        <v>0.06334299421931387</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1986207733290043</v>
+        <v>0.2002295112544381</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3313296162512655</v>
+        <v>0.3351915035877304</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0894928460629542</v>
+        <v>0.08853667716851757</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.226781782668531</v>
+        <v>0.2244501521935289</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2584465815876091</v>
+        <v>0.2540105279818974</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.247727094478406</v>
+        <v>0.2511458481371848</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4717564027181128</v>
+        <v>0.4676199301618693</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3227011884812227</v>
+        <v>0.3206733984465975</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.196544350676354</v>
+        <v>0.1899022996487779</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4676099419958779</v>
+        <v>0.4584076102514877</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5934038333649888</v>
+        <v>0.5833255881325535</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1927412212039139</v>
+        <v>0.1904010032182281</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4128453885046909</v>
+        <v>0.4185125031493143</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3986400027072835</v>
+        <v>0.4178806441982341</v>
       </c>
     </row>
     <row r="22">
@@ -1305,7 +1305,7 @@
         <v>0.3283066458747671</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.6414385411849651</v>
+        <v>0.641438541184965</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.2021350752701116</v>
@@ -1314,7 +1314,7 @@
         <v>0.4136308704660369</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.68362853421891</v>
+        <v>0.6836285342189101</v>
       </c>
     </row>
     <row r="23">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.140602079865652</v>
+        <v>0.145301261257108</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.408524745018146</v>
+        <v>0.4056197796610125</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5992239431685507</v>
+        <v>0.5966935631031396</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1391251878478219</v>
+        <v>0.140905868775331</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2620994264718335</v>
+        <v>0.2627403550091625</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5477509802401135</v>
+        <v>0.5493465997011737</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1579277390240875</v>
+        <v>0.162379663568638</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3489621156355192</v>
+        <v>0.3518622203386046</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6015366667685291</v>
+        <v>0.6052681583614524</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2936487908233052</v>
+        <v>0.3035463174011885</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6275351124702989</v>
+        <v>0.6112869873143473</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8886635445466863</v>
+        <v>0.883771949868534</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2785773621950984</v>
+        <v>0.2717344947939135</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4114412299438088</v>
+        <v>0.4094359886639446</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.741687735524473</v>
+        <v>0.7433832388284005</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.261764134525082</v>
+        <v>0.2648340613042553</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4844366864883027</v>
+        <v>0.4767708887290384</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7689292477566202</v>
+        <v>0.7810405397606826</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3677925256395958</v>
+        <v>0.3654202636162472</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3873288212635909</v>
+        <v>0.3949078573198037</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.140650990655024</v>
+        <v>1.135518967846727</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.250153074686393</v>
+        <v>0.2570881568498186</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2798437559644465</v>
+        <v>0.2734515655694243</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6112722773916787</v>
+        <v>0.6254888998607911</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3318843412040759</v>
+        <v>0.3349120074241039</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3595412447229603</v>
+        <v>0.3581000848870085</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.8932181412354155</v>
+        <v>0.9003331634460342</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5539313032860189</v>
+        <v>0.5548547668741431</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5981710398183477</v>
+        <v>0.6020007992909213</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.470679066879056</v>
+        <v>1.478073560181327</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4303229839863986</v>
+        <v>0.4316121538523061</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4520476769300573</v>
+        <v>0.4603314223661836</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.825086597083811</v>
+        <v>0.8327007873628075</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4564579287754493</v>
+        <v>0.4582784787665202</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4947340525517418</v>
+        <v>0.4883234402926774</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>1.098084359988498</v>
+        <v>1.105121637300898</v>
       </c>
     </row>
     <row r="28">
@@ -1514,7 +1514,7 @@
         <v>0.423938737589067</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.9501782287602669</v>
+        <v>0.950178228760267</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.2175815007192729</v>
@@ -1532,7 +1532,7 @@
         <v>0.3603207250359294</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.8183217700488281</v>
+        <v>0.8183217700488279</v>
       </c>
     </row>
     <row r="29">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2778721968809071</v>
+        <v>0.2770400019328729</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3794564016282427</v>
+        <v>0.376538852328421</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.876467589591779</v>
+        <v>0.874522756766363</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1859567487393572</v>
+        <v>0.1888586185857877</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2630156323023208</v>
+        <v>0.2619253919452068</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6456999563393631</v>
+        <v>0.6494744083712859</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2410394949020064</v>
+        <v>0.2422151974274276</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3340829979843205</v>
+        <v>0.3295091142186534</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.7812330471202289</v>
+        <v>0.7761340014378343</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3626461236477625</v>
+        <v>0.365132646328982</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.471102774821863</v>
+        <v>0.4720468236037105</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.022196252888627</v>
+        <v>1.023675612908565</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2539525227422185</v>
+        <v>0.2563126409218388</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3349020796942643</v>
+        <v>0.3370257732317765</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7409516570413082</v>
+        <v>0.7457584663968827</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2944729536330025</v>
+        <v>0.2942201250669355</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3887568179258006</v>
+        <v>0.3909516456277641</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.8616182989460447</v>
+        <v>0.8600832687569681</v>
       </c>
     </row>
     <row r="31">
